--- a/data/trans_orig/p26_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0D8FD7-D874-4F87-8A86-1D4ABB2F56BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C5FB23-AD66-41A9-8556-65C20F3716C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B93DD6-A7F9-4792-A6D0-3EBF8EEEC0DF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E68B99AB-EEC1-47E7-8142-370691D23748}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>38,7%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
   </si>
   <si>
     <t>23,3%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>61,3%</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>76,7%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>24,63%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>31,61%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>23,13%</t>
   </si>
   <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>76,87%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>80,55%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>29,38%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>26,3%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
   </si>
   <si>
     <t>73,7%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE219F2-6E54-4008-87CB-6547D213AB95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD73BC0-7A46-4605-A2F9-7789FC0BD7A7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/p26_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C5FB23-AD66-41A9-8556-65C20F3716C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E92DDC-C5AC-4DB7-8FC7-08FAD705935E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E68B99AB-EEC1-47E7-8142-370691D23748}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A662D74D-7639-4CE6-B402-BBF051D78DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -74,28 +74,28 @@
     <t>38,7%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
   </si>
   <si>
     <t>23,3%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,163 +104,163 @@
     <t>61,3%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>76,7%</t>
   </si>
   <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>10,23%</t>
+    <t>9,67%</t>
   </si>
   <si>
     <t>18,24%</t>
@@ -269,19 +269,19 @@
     <t>19,45%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>76,87%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>86,55%</t>
@@ -290,16 +290,16 @@
     <t>81,76%</t>
   </si>
   <si>
-    <t>89,77%</t>
+    <t>90,33%</t>
   </si>
   <si>
     <t>80,55%</t>
   </si>
   <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>29,38%</t>
   </si>
   <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>26,3%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>73,7%</t>
   </si>
   <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD73BC0-7A46-4605-A2F9-7789FC0BD7A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0B5F79-FABB-4996-88FB-BFF4C2BA6FD3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/p26_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E92DDC-C5AC-4DB7-8FC7-08FAD705935E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19087945-EB43-4DB5-AD71-5F62E8E455F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A662D74D-7639-4CE6-B402-BBF051D78DEB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30A951F1-020E-4BED-A695-163C410575E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>38,7%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>23,3%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>61,3%</t>
   </si>
   <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>76,7%</t>
   </si>
   <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>24,63%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>31,61%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>23,13%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
   </si>
   <si>
     <t>76,87%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>80,55%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>29,38%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>26,3%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>73,7%</t>
   </si>
   <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0B5F79-FABB-4996-88FB-BFF4C2BA6FD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0C3E87-2BA6-43D6-96E9-EC96EF7311AF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/p26_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/p26_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19087945-EB43-4DB5-AD71-5F62E8E455F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23386AFA-4623-4B17-A279-987C56C39DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30A951F1-020E-4BED-A695-163C410575E4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{734520B8-F0DF-4DFF-ABB2-143CD0A36BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si tiene algún compañero de trabajo que fume habitualmente de manera que le llgue el humo en 2007 (Tasa respuesta: 46,43%)</t>
   </si>
@@ -65,129 +65,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -245,7 +188,7 @@
     <t>75,76%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>23,13%</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0C3E87-2BA6-43D6-96E9-EC96EF7311AF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B749675-C49B-4EBB-BA04-BDFA321F1130}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D4" s="7">
-        <v>19493</v>
+        <v>97030</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>6168</v>
+        <v>23098</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="N4" s="7">
-        <v>25661</v>
+        <v>120127</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="D5" s="7">
-        <v>30875</v>
+        <v>268207</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I5" s="7">
-        <v>20305</v>
+        <v>155498</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>48</v>
+        <v>412</v>
       </c>
       <c r="N5" s="7">
-        <v>51180</v>
+        <v>423705</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="D6" s="7">
-        <v>50368</v>
+        <v>365237</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="I6" s="7">
-        <v>26473</v>
+        <v>178596</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>73</v>
+        <v>528</v>
       </c>
       <c r="N6" s="7">
-        <v>76841</v>
+        <v>543832</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D7" s="7">
-        <v>77537</v>
+        <v>175002</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>16930</v>
+        <v>59592</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>94467</v>
+        <v>234594</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>232</v>
+        <v>343</v>
       </c>
       <c r="D8" s="7">
-        <v>237331</v>
+        <v>378672</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="I8" s="7">
-        <v>135193</v>
+        <v>245490</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>364</v>
+        <v>569</v>
       </c>
       <c r="N8" s="7">
-        <v>372524</v>
+        <v>624162</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>306</v>
+        <v>501</v>
       </c>
       <c r="D9" s="7">
-        <v>314868</v>
+        <v>553674</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="I9" s="7">
-        <v>152123</v>
+        <v>305082</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>455</v>
+        <v>784</v>
       </c>
       <c r="N9" s="7">
-        <v>466991</v>
+        <v>858756</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D10" s="7">
-        <v>175002</v>
+        <v>100368</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>59592</v>
+        <v>35864</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="N10" s="7">
-        <v>234594</v>
+        <v>136231</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="D11" s="7">
-        <v>378672</v>
+        <v>333560</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>245490</v>
+        <v>230732</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="N11" s="7">
-        <v>624162</v>
+        <v>564293</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>501</v>
+        <v>396</v>
       </c>
       <c r="D12" s="7">
-        <v>553674</v>
+        <v>433928</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="I12" s="7">
-        <v>305082</v>
+        <v>266596</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>784</v>
+        <v>663</v>
       </c>
       <c r="N12" s="7">
-        <v>858756</v>
+        <v>700524</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>100368</v>
+        <v>169835</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I13" s="7">
-        <v>35864</v>
+        <v>106804</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>131</v>
+        <v>276</v>
       </c>
       <c r="N13" s="7">
-        <v>136231</v>
+        <v>276640</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>304</v>
+        <v>423</v>
       </c>
       <c r="D14" s="7">
-        <v>333560</v>
+        <v>408142</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="I14" s="7">
-        <v>230732</v>
+        <v>367242</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>532</v>
+        <v>772</v>
       </c>
       <c r="N14" s="7">
-        <v>564293</v>
+        <v>775383</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>396</v>
+        <v>601</v>
       </c>
       <c r="D15" s="7">
-        <v>433928</v>
+        <v>577977</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>267</v>
+        <v>447</v>
       </c>
       <c r="I15" s="7">
-        <v>266596</v>
+        <v>474046</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>663</v>
+        <v>1048</v>
       </c>
       <c r="N15" s="7">
-        <v>700524</v>
+        <v>1052023</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>178</v>
+        <v>520</v>
       </c>
       <c r="D16" s="7">
-        <v>169835</v>
+        <v>542235</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>218</v>
+      </c>
+      <c r="I16" s="7">
+        <v>225358</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>98</v>
-      </c>
-      <c r="I16" s="7">
-        <v>106804</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>738</v>
+      </c>
+      <c r="N16" s="7">
+        <v>767593</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>276</v>
-      </c>
-      <c r="N16" s="7">
-        <v>276640</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>423</v>
+        <v>1328</v>
       </c>
       <c r="D17" s="7">
-        <v>408142</v>
+        <v>1388581</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>957</v>
+      </c>
+      <c r="I17" s="7">
+        <v>998962</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>349</v>
-      </c>
-      <c r="I17" s="7">
-        <v>367242</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2285</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2387542</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>772</v>
-      </c>
-      <c r="N17" s="7">
-        <v>775383</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>601</v>
+        <v>1848</v>
       </c>
       <c r="D18" s="7">
-        <v>577977</v>
+        <v>1930816</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>447</v>
+        <v>1175</v>
       </c>
       <c r="I18" s="7">
-        <v>474046</v>
+        <v>1224320</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1048</v>
+        <v>3023</v>
       </c>
       <c r="N18" s="7">
-        <v>1052023</v>
+        <v>3155135</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>520</v>
-      </c>
-      <c r="D19" s="7">
-        <v>542235</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>218</v>
-      </c>
-      <c r="I19" s="7">
-        <v>225358</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>738</v>
-      </c>
-      <c r="N19" s="7">
-        <v>767593</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1328</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1388581</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>957</v>
-      </c>
-      <c r="I20" s="7">
-        <v>998962</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2285</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2387542</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1848</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1930816</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1175</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1224320</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3023</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3155135</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
